--- a/ExcelToDatabase/wwwroot/Uploads/importfile.xlsx
+++ b/ExcelToDatabase/wwwroot/Uploads/importfile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HK2 2023-2024\TN408 NienLuan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB28ADE-1845-48E9-8B2F-E32457463B8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A9F19C-7E7B-4D42-A59B-949281C10FDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4620" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{80549B35-C4EB-4A7C-B8D2-F0AF8A9BC7A4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{80549B35-C4EB-4A7C-B8D2-F0AF8A9BC7A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,14 +34,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>mon</t>
   </si>
   <si>
-    <t>hihiiihiih</t>
-  </si>
-  <si>
     <t>Username</t>
   </si>
   <si>
@@ -66,21 +63,9 @@
     <t>Active</t>
   </si>
   <si>
-    <t>user1</t>
-  </si>
-  <si>
-    <t>pass1</t>
-  </si>
-  <si>
-    <t>Người Dùng 1</t>
-  </si>
-  <si>
     <t>Nam</t>
   </si>
   <si>
-    <t>Địa chỉ 1</t>
-  </si>
-  <si>
     <t>No.</t>
   </si>
   <si>
@@ -90,9 +75,6 @@
     <t>nam</t>
   </si>
   <si>
-    <t>user2</t>
-  </si>
-  <si>
     <t>man</t>
   </si>
   <si>
@@ -100,6 +82,21 @@
   </si>
   <si>
     <t>02</t>
+  </si>
+  <si>
+    <t>thanh</t>
+  </si>
+  <si>
+    <t>Trần Văn Mon</t>
+  </si>
+  <si>
+    <t>Trần Văn Man</t>
+  </si>
+  <si>
+    <t>AG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trần Thị Thanh Thanh </t>
   </si>
 </sst>
 </file>
@@ -144,7 +141,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -215,11 +212,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFE3E3E3"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -247,6 +253,11 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -561,179 +572,156 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81820F55-57B8-446B-A4A7-2EC74CDBEAFB}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="15.88671875" customWidth="1"/>
+    <col min="4" max="4" width="19.44140625" customWidth="1"/>
     <col min="5" max="5" width="16.44140625" style="7" customWidth="1"/>
     <col min="8" max="8" width="14.88671875" style="7" customWidth="1"/>
     <col min="10" max="10" width="8.88671875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="J1" s="9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>12</v>
+      <c r="B2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="3">
+        <v>123</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="E2" s="6">
-        <v>32874</v>
+        <v>37360</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="H2" s="6">
-        <v>32874</v>
+        <v>45371</v>
       </c>
       <c r="I2" s="4" t="b">
         <v>1</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="11">
         <v>123</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="14">
+        <v>41874</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="6">
+        <v>45371</v>
+      </c>
+      <c r="I3" s="12" t="b">
         <v>1</v>
       </c>
-      <c r="E3" s="7">
-        <v>37350</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="7">
-        <v>37350</v>
-      </c>
-      <c r="I3" t="b">
+      <c r="J3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="12"/>
+    </row>
+    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="11">
+        <v>123</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="14">
+        <v>44754</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="6">
+        <v>45371</v>
+      </c>
+      <c r="I4" s="12" t="b">
         <v>1</v>
       </c>
-      <c r="J3" s="10" t="s">
-        <v>21</v>
-      </c>
+      <c r="J4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="12"/>
     </row>
-    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="6">
-        <v>32874</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="6">
-        <v>32874</v>
-      </c>
-      <c r="I4" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5">
-        <v>123</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="7">
-        <v>37350</v>
-      </c>
-      <c r="F5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="7">
-        <v>37350</v>
-      </c>
-      <c r="I5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>20</v>
-      </c>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
